--- a/biology/Botanique/Vicia_sylvatica/Vicia_sylvatica.xlsx
+++ b/biology/Botanique/Vicia_sylvatica/Vicia_sylvatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vesce des bois (Vicia sylvatica) est une plante herbacée vivace de la famille des Fabacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à ses vrilles fourchues terminant les feuilles, c'est une plante grimpante ; verte, glabre, elle peut atteindre deux mètres de hauteur au maximum.
 Les feuilles composées portent 12 à 20 folioles terminées par un mucron, les stipules sont profondément dentées ; les fleurs longues d'environ 1,5 cm sont tournées d'un même côté, pendantes, généralement blanches, finement veinées de bleu ; les fruits sont des gousses glabres longues de 2,5 à 3 cm, noires à maturité.
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurosibérienne.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Généralement en forêts de montagne (feuillus et résineux) entre 800 et 2 200 m d'altitude, mais signalée aussi dans d'autres biotopes, comme des falaises et cailloux du littoral.
 Synonymie
